--- a/src/chart/Excel.xlsx
+++ b/src/chart/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2004\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2CCA39-8F6C-456B-B6DB-073E3664E93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE1860-0625-466A-92F2-F9B4ECCB467F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B16BAB8-51F0-4056-B5D1-24B236DF2BEE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{8B16BAB8-51F0-4056-B5D1-24B236DF2BEE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>數量\情況</t>
   </si>
@@ -80,6 +71,22 @@
   </si>
   <si>
     <t>內建 sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n log n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最糟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1655,6 +1662,766 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>73.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553.08100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1172.4390000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2382.5059999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AAC-4C44-97B1-77BF47B9EE43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$27:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>142.8646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>916.00450000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1794.1859999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3643.402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AAC-4C44-97B1-77BF47B9EE43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>104.0605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>699.84349999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1478.751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2649.4740000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AAC-4C44-97B1-77BF47B9EE43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="181858767"/>
+        <c:axId val="168403887"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181858767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="168403887"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168403887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181858767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2737.2170000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14304.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29531.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59341.440000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4742-4D86-81BA-C287036B9E34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$35:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3219.087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16779.285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31057.360000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62535.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4742-4D86-81BA-C287036B9E34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2742.8850000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14259.934999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28985.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59122.720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4742-4D86-81BA-C287036B9E34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="284120895"/>
+        <c:axId val="283556895"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="284120895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="283556895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="283556895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284120895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1775,6 +2542,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2808,6 +3655,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3430,6 +5309,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A9DEDDA-681D-4D56-9825-14DD6D1C26C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F19C21F-88EA-4511-AFCC-79A9308695DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3738,26 +5689,26 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="21" width="8.88671875" style="1"/>
-    <col min="22" max="22" width="8.5546875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="21" width="8.875" style="1"/>
+    <col min="22" max="22" width="8.5" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +5722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -3785,7 +5736,7 @@
         <v>7.9763549999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5000</v>
       </c>
@@ -3799,7 +5750,7 @@
         <v>115.03659500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10000</v>
       </c>
@@ -3813,7 +5764,7 @@
         <v>402.40866</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>20000</v>
       </c>
@@ -3827,7 +5778,7 @@
         <v>1631.34204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3841,12 +5792,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -3860,7 +5811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1000</v>
       </c>
@@ -3874,7 +5825,7 @@
         <v>12.717466</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>5000</v>
       </c>
@@ -3888,7 +5839,7 @@
         <v>77.964309999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10000</v>
       </c>
@@ -3902,7 +5853,7 @@
         <v>163.77543</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>20000</v>
       </c>
@@ -3916,7 +5867,7 @@
         <v>349.26925999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -3930,12 +5881,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +5900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1000</v>
       </c>
@@ -3963,7 +5914,7 @@
         <v>40.801392999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>5000</v>
       </c>
@@ -3977,7 +5928,7 @@
         <v>260.29177499999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>10000</v>
       </c>
@@ -3991,7 +5942,7 @@
         <v>571.98586</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>20000</v>
       </c>
@@ -4005,22 +5956,26 @@
         <v>1249.88472</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -4031,42 +5986,66 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1000</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="5">
+        <v>73.725999999999999</v>
+      </c>
+      <c r="C27" s="5">
+        <v>142.8646</v>
+      </c>
+      <c r="D27" s="5">
+        <v>104.0605</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>5000</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="5">
+        <v>553.08100000000002</v>
+      </c>
+      <c r="C28" s="5">
+        <v>916.00450000000001</v>
+      </c>
+      <c r="D28" s="5">
+        <v>699.84349999999995</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>10000</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="5">
+        <v>1172.4390000000001</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1794.1859999999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1478.751</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>20000</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="5">
+        <v>2382.5059999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3643.402</v>
+      </c>
+      <c r="D30" s="5">
+        <v>2649.4740000000002</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -4074,8 +6053,12 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -4089,49 +6072,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1000</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="5">
+        <v>2737.2170000000001</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3219.087</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2742.8850000000002</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>5000</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="5">
+        <v>14304.15</v>
+      </c>
+      <c r="C36" s="5">
+        <v>16779.285</v>
+      </c>
+      <c r="D36" s="5">
+        <v>14259.934999999999</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>10000</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="5">
+        <v>29531.66</v>
+      </c>
+      <c r="C37" s="5">
+        <v>31057.360000000001</v>
+      </c>
+      <c r="D37" s="5">
+        <v>28985.67</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>20000</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="5">
+        <v>59341.440000000002</v>
+      </c>
+      <c r="C38" s="5">
+        <v>62535.98</v>
+      </c>
+      <c r="D38" s="5">
+        <v>59122.720000000001</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>